--- a/src/main/resources/assets/_test/docs/xlsx/_IF015_02.xlsx
+++ b/src/main/resources/assets/_test/docs/xlsx/_IF015_02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_dev\_workspace\sts4-workspace\pjt_hanwha_life_mvc\src\main\resources\assets\_test\docs\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_dev\_workspace\workspace-spring-tool-suite4\pjt_hanwha_life_mvc\src\main\resources\assets\_test\docs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12290"/>
   </bookViews>
   <sheets>
     <sheet name="IF015_02" sheetId="1" r:id="rId1"/>
@@ -1265,11 +1265,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1326,7 +1348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1334,12 +1356,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1364,7 +1386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1372,7 +1394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1386,7 +1408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1400,7 +1422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1450,7 +1472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1464,7 +1486,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1502,7 +1524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1540,7 +1562,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1578,7 +1600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1616,7 +1638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1654,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1692,7 +1714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1730,7 +1752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1768,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>9</v>
       </c>
@@ -1806,7 +1828,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1844,7 +1866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>11</v>
       </c>
@@ -1882,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>12</v>
       </c>
@@ -1920,7 +1942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>13</v>
       </c>
@@ -1958,7 +1980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>14</v>
       </c>
@@ -1996,7 +2018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>15</v>
       </c>
@@ -2034,7 +2056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>16</v>
       </c>
@@ -2072,7 +2094,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>17</v>
       </c>
@@ -2110,7 +2132,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>18</v>
       </c>
@@ -2148,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>19</v>
       </c>
@@ -2186,7 +2208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>20</v>
       </c>
@@ -2224,7 +2246,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>21</v>
       </c>
@@ -2262,7 +2284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>22</v>
       </c>
@@ -2300,7 +2322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>23</v>
       </c>
@@ -2338,7 +2360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>24</v>
       </c>
@@ -2376,7 +2398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>25</v>
       </c>
@@ -2414,7 +2436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>26</v>
       </c>
@@ -2452,7 +2474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>27</v>
       </c>
@@ -2490,12 +2512,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -2548,7 +2570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>37</v>
       </c>
@@ -2562,7 +2584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2600,7 +2622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2638,7 +2660,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2676,7 +2698,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>4</v>
       </c>
@@ -2714,7 +2736,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>5</v>
       </c>
